--- a/members/members.xlsx
+++ b/members/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD7785BC-A3E0-499E-87F9-73DDDA655732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AD1B55-A0BA-44E0-9A2B-118FC1C64D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NAME</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Seng</t>
   </si>
   <si>
-    <t>Singer</t>
-  </si>
-  <si>
     <t>Niam Nhia</t>
   </si>
   <si>
@@ -64,16 +61,37 @@
   </si>
   <si>
     <t>Niam Txhiajtswb</t>
+  </si>
+  <si>
+    <t>Niam Yauhan</t>
+  </si>
+  <si>
+    <t>Singers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -102,32 +120,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -138,133 +134,88 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -275,17 +226,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:B9" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="NAME" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="ROLE" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,23 +505,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
+      <c r="A2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -589,57 +529,53 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B10" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/members/members.xlsx
+++ b/members/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AD1B55-A0BA-44E0-9A2B-118FC1C64D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73610D21-E060-4B55-A340-B616BE83CDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>NAME</t>
   </si>
@@ -66,7 +66,7 @@
     <t>Niam Yauhan</t>
   </si>
   <si>
-    <t>Singers</t>
+    <t>Singer</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -131,12 +131,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -144,9 +140,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -160,62 +154,149 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -226,6 +307,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34F1E27A-38FD-4029-920B-9ACECBED2774}" name="Table1" displayName="Table1" ref="A1:B10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="4">
+  <autoFilter ref="A1:B10" xr:uid="{34F1E27A-38FD-4029-920B-9ACECBED2774}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C95636A2-DCD4-42B9-B936-770559FCC941}" name="NAME" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D42F9EF6-C55B-463C-996D-14FFA7C5B543}" name="ROLE" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,7 +586,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,77 +597,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:B10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/members/members.xlsx
+++ b/members/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73610D21-E060-4B55-A340-B616BE83CDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662D3474-76ED-41DB-9401-9C3EDBA5590F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Worship Leader</t>
   </si>
   <si>
-    <t>Wayengkong</t>
-  </si>
-  <si>
     <t>Pianist</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>Niam Nhia</t>
   </si>
   <si>
-    <t>N Wayengkong</t>
-  </si>
-  <si>
     <t>Niam Tsavhaumxeeb</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>Singer</t>
+  </si>
+  <si>
+    <t>Niam Vamyeejkoob</t>
+  </si>
+  <si>
+    <t>Vamyeejkoob</t>
   </si>
 </sst>
 </file>
@@ -175,7 +175,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -186,34 +186,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -296,6 +268,34 @@
         </top>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -310,11 +310,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34F1E27A-38FD-4029-920B-9ACECBED2774}" name="Table1" displayName="Table1" ref="A1:B10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34F1E27A-38FD-4029-920B-9ACECBED2774}" name="Table1" displayName="Table1" ref="A1:B10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:B10" xr:uid="{34F1E27A-38FD-4029-920B-9ACECBED2774}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C95636A2-DCD4-42B9-B936-770559FCC941}" name="NAME" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D42F9EF6-C55B-463C-996D-14FFA7C5B543}" name="ROLE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C95636A2-DCD4-42B9-B936-770559FCC941}" name="NAME" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D42F9EF6-C55B-463C-996D-14FFA7C5B543}" name="ROLE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,7 +586,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -614,66 +614,66 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
